--- a/Data/Silver/wedstrijden_cleaned.xlsx
+++ b/Data/Silver/wedstrijden_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosyn\Desktop\thesis\thesis_code\Data\Silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAD25BB-8374-458A-8FA9-A40F42168F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93BDE81-F4EE-4AF9-800B-0E3FC1C27DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="149">
   <si>
     <t>wedstrijd_id</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>0v10</t>
-  </si>
-  <si>
-    <t>20/09/024</t>
   </si>
   <si>
     <t>n1</t>
@@ -477,7 +474,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -534,7 +531,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,7 +836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="N104" sqref="N104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1415,7 +1414,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>45897</v>
+        <v>45532</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2587,11 +2586,11 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2">
+        <v>45555</v>
+      </c>
+      <c r="C101" t="s">
         <v>87</v>
-      </c>
-      <c r="C101" t="s">
-        <v>88</v>
       </c>
       <c r="D101" t="s">
         <v>52</v>
@@ -2600,7 +2599,7 @@
         <v>71</v>
       </c>
       <c r="F101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2628,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E103" t="s">
         <v>24</v>
@@ -2659,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2715,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -2732,7 +2731,7 @@
         <v>33</v>
       </c>
       <c r="F110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2746,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2788,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2844,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E118" t="s">
         <v>32</v>
@@ -2903,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -2917,7 +2916,7 @@
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -2942,10 +2941,10 @@
         <v>45541</v>
       </c>
       <c r="C125" t="s">
+        <v>98</v>
+      </c>
+      <c r="D125" t="s">
         <v>99</v>
-      </c>
-      <c r="D125" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -2973,7 +2972,7 @@
         <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3001,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3015,7 +3014,7 @@
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3099,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3130,10 +3129,10 @@
         <v>45632</v>
       </c>
       <c r="C138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E138" t="s">
         <v>42</v>
@@ -3150,7 +3149,7 @@
         <v>45639</v>
       </c>
       <c r="C139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D139" t="s">
         <v>33</v>
@@ -3159,7 +3158,7 @@
         <v>60</v>
       </c>
       <c r="F139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3170,7 +3169,7 @@
         <v>45632</v>
       </c>
       <c r="C140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
@@ -3179,7 +3178,7 @@
         <v>7</v>
       </c>
       <c r="F140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3190,10 +3189,10 @@
         <v>45639</v>
       </c>
       <c r="C141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D141" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E141" t="s">
         <v>28</v>
@@ -3210,7 +3209,7 @@
         <v>45301</v>
       </c>
       <c r="C142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D142" t="s">
         <v>41</v>
@@ -3230,13 +3229,13 @@
         <v>45667</v>
       </c>
       <c r="C143" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D143" t="s">
+        <v>94</v>
+      </c>
+      <c r="F143" t="s">
         <v>95</v>
-      </c>
-      <c r="F143" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3256,7 +3255,7 @@
         <v>24</v>
       </c>
       <c r="F144" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3276,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="F145" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3296,7 +3295,7 @@
         <v>60</v>
       </c>
       <c r="F146" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3316,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3327,7 +3326,7 @@
         <v>45569</v>
       </c>
       <c r="C148" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D148" t="s">
         <v>30</v>
@@ -3373,7 +3372,7 @@
         <v>81</v>
       </c>
       <c r="F150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3404,13 +3403,13 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E152" t="s">
         <v>20</v>
       </c>
       <c r="F152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -3430,7 +3429,7 @@
         <v>20</v>
       </c>
       <c r="F153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -3441,7 +3440,7 @@
         <v>45576</v>
       </c>
       <c r="C154" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D154" t="s">
         <v>22</v>
@@ -3450,7 +3449,7 @@
         <v>71</v>
       </c>
       <c r="F154" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -3461,7 +3460,7 @@
         <v>45577</v>
       </c>
       <c r="C155" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D155" t="s">
         <v>46</v>
@@ -3470,7 +3469,7 @@
         <v>71</v>
       </c>
       <c r="F155" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3481,7 +3480,7 @@
         <v>45583</v>
       </c>
       <c r="C156" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
@@ -3490,7 +3489,7 @@
         <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3504,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F157" t="s">
         <v>42</v>
@@ -3524,7 +3523,7 @@
         <v>81</v>
       </c>
       <c r="F158" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -3561,7 +3560,7 @@
         <v>35</v>
       </c>
       <c r="F160" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -3575,13 +3574,13 @@
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E161" t="s">
         <v>49</v>
       </c>
       <c r="F161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -3601,7 +3600,7 @@
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3635,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E164" t="s">
         <v>20</v>
@@ -3692,16 +3691,16 @@
         <v>45618</v>
       </c>
       <c r="C167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D167" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E167" t="s">
         <v>22</v>
       </c>
       <c r="F167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -3715,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E168" t="s">
         <v>71</v>
@@ -3732,7 +3731,7 @@
         <v>45625</v>
       </c>
       <c r="C169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D169" t="s">
         <v>51</v>
@@ -3741,7 +3740,7 @@
         <v>49</v>
       </c>
       <c r="F169" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -3755,13 +3754,13 @@
         <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E170" t="s">
         <v>20</v>
       </c>
       <c r="F170" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -3781,7 +3780,7 @@
         <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -3801,7 +3800,7 @@
         <v>32</v>
       </c>
       <c r="F172" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -3821,7 +3820,7 @@
         <v>24</v>
       </c>
       <c r="F173" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -3835,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E174" t="s">
         <v>49</v>
@@ -3875,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E176" t="s">
         <v>20</v>
@@ -3915,7 +3914,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E178" t="s">
         <v>12</v>
@@ -3935,7 +3934,7 @@
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E179" t="s">
         <v>35</v>
@@ -3975,7 +3974,7 @@
         <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E181" t="s">
         <v>7</v>
@@ -3995,7 +3994,7 @@
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E182" t="s">
         <v>60</v>
@@ -4021,7 +4020,7 @@
         <v>60</v>
       </c>
       <c r="F183" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4041,7 +4040,7 @@
         <v>38</v>
       </c>
       <c r="F184" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4055,13 +4054,13 @@
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E185" t="s">
         <v>71</v>
       </c>
       <c r="F185" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4101,7 +4100,7 @@
         <v>48</v>
       </c>
       <c r="F187" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4115,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E188" t="s">
         <v>42</v>
@@ -4175,7 +4174,7 @@
         <v>3</v>
       </c>
       <c r="D191" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E191" t="s">
         <v>22</v>
@@ -4221,7 +4220,7 @@
         <v>71</v>
       </c>
       <c r="F193" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4235,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E194" t="s">
         <v>22</v>
@@ -4261,7 +4260,7 @@
         <v>28</v>
       </c>
       <c r="F195" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4275,13 +4274,13 @@
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E196" t="s">
         <v>7</v>
       </c>
       <c r="F196" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -4301,7 +4300,7 @@
         <v>42</v>
       </c>
       <c r="F197" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4321,7 +4320,7 @@
         <v>48</v>
       </c>
       <c r="F198" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4355,13 +4354,13 @@
         <v>3</v>
       </c>
       <c r="D200" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E200" t="s">
         <v>42</v>
       </c>
       <c r="F200" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -4381,7 +4380,7 @@
         <v>42</v>
       </c>
       <c r="F201" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -4401,7 +4400,7 @@
         <v>18</v>
       </c>
       <c r="F202" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -4421,7 +4420,7 @@
         <v>71</v>
       </c>
       <c r="F203" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -4435,13 +4434,13 @@
         <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E204" t="s">
         <v>60</v>
       </c>
       <c r="F204" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -4461,7 +4460,7 @@
         <v>28</v>
       </c>
       <c r="F205" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -4481,7 +4480,7 @@
         <v>48</v>
       </c>
       <c r="F206" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -4501,7 +4500,7 @@
         <v>42</v>
       </c>
       <c r="F207" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4515,13 +4514,13 @@
         <v>3</v>
       </c>
       <c r="D208" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E208" t="s">
         <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -4541,7 +4540,7 @@
         <v>22</v>
       </c>
       <c r="F209" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -4555,13 +4554,13 @@
         <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E210" t="s">
         <v>48</v>
       </c>
       <c r="F210" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4601,7 +4600,7 @@
         <v>7</v>
       </c>
       <c r="F212" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -4621,7 +4620,7 @@
         <v>22</v>
       </c>
       <c r="F213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -4641,7 +4640,7 @@
         <v>22</v>
       </c>
       <c r="F214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -4672,10 +4671,10 @@
         <v>45758</v>
       </c>
       <c r="C216" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D216" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F216" t="s">
         <v>42</v>
@@ -4689,10 +4688,10 @@
         <v>45751</v>
       </c>
       <c r="C217" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D217" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E217" t="s">
         <v>24</v>
@@ -4706,10 +4705,10 @@
         <v>45751</v>
       </c>
       <c r="C218" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D218" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -4720,7 +4719,7 @@
         <v>45745</v>
       </c>
       <c r="C219" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D219" t="s">
         <v>56</v>
@@ -4737,10 +4736,10 @@
         <v>45730</v>
       </c>
       <c r="C220" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D220" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F220" t="s">
         <v>8</v>
@@ -4754,10 +4753,10 @@
         <v>45569</v>
       </c>
       <c r="C221" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D221" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F221" t="s">
         <v>71</v>
@@ -4771,13 +4770,13 @@
         <v>45695</v>
       </c>
       <c r="C222" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D222" t="s">
         <v>31</v>
       </c>
       <c r="F222" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4788,7 +4787,7 @@
         <v>45604</v>
       </c>
       <c r="C223" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D223" t="s">
         <v>21</v>
@@ -4805,13 +4804,13 @@
         <v>45709</v>
       </c>
       <c r="C224" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D224" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F224" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -4822,10 +4821,10 @@
         <v>45737</v>
       </c>
       <c r="C225" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D225" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F225" t="s">
         <v>30</v>
@@ -4839,7 +4838,7 @@
         <v>45555</v>
       </c>
       <c r="C226" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D226" t="s">
         <v>51</v>
@@ -4856,13 +4855,13 @@
         <v>45562</v>
       </c>
       <c r="C227" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D227" t="s">
         <v>77</v>
       </c>
       <c r="F227" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -4873,13 +4872,13 @@
         <v>45583</v>
       </c>
       <c r="C228" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D228" t="s">
         <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -4890,7 +4889,7 @@
         <v>45590</v>
       </c>
       <c r="C229" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D229" t="s">
         <v>73</v>
@@ -4907,7 +4906,7 @@
         <v>45618</v>
       </c>
       <c r="C230" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D230" t="s">
         <v>52</v>
@@ -4924,13 +4923,13 @@
         <v>45625</v>
       </c>
       <c r="C231" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D231" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F231" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -4941,7 +4940,7 @@
         <v>45632</v>
       </c>
       <c r="C232" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D232" t="s">
         <v>46</v>

--- a/Data/Silver/wedstrijden_cleaned.xlsx
+++ b/Data/Silver/wedstrijden_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosyn\Desktop\thesis\thesis_code\Data\Silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93BDE81-F4EE-4AF9-800B-0E3FC1C27DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB85E365-6F1D-4D6E-8605-E51408F6A97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="N104" sqref="N104"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3206,7 +3206,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2">
-        <v>45301</v>
+        <v>45667</v>
       </c>
       <c r="C142" t="s">
         <v>98</v>

--- a/Data/Silver/wedstrijden_cleaned.xlsx
+++ b/Data/Silver/wedstrijden_cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosyn\Desktop\thesis\thesis_code\Data\Silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB85E365-6F1D-4D6E-8605-E51408F6A97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA3CDFE-559C-4AD9-BF10-BB9AC31180E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3574,7 +3574,7 @@
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="E161" t="s">
         <v>49</v>
